--- a/biology/Botanique/Blandong/Blandong.xlsx
+++ b/biology/Botanique/Blandong/Blandong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Blandong et les quotas qui l'accompagnent, est un système de travail forcé ou de servage instauré début XVIIIe siècle sur l'île Java par la Compagnie néerlandaise des Indes orientales ou VOC, pour exploiter le teck, dont elle avait besoin pour la construction de ses navires[1],[2]. Le système de quotas instauré par le régime hollandais (houtcontingenten) est supprimé par Herman Willem Daendels[3], cependant l’exploitation forestière resta largement dépendante du travail pénible des populations locales. Le blandong est aboli en 1865. Les blandongs n'étaient pas seulement responsables de la coupe des arbres et de leur débardage, ils devaient également fournir les bêtes de sommes nécessaires au débardage. Le travail du blandong se faisait de février à novembre; de novembre à février il était occupé à la culture du riz[3].
-Durant l'Orde Baru (en) de Suharto, « blandong  » devient synonyme d'exploitant forestier ou de bûcheron, et dans l'ère post-Suharto (en) d'exploitant forestier illégal[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Blandong et les quotas qui l'accompagnent, est un système de travail forcé ou de servage instauré début XVIIIe siècle sur l'île Java par la Compagnie néerlandaise des Indes orientales ou VOC, pour exploiter le teck, dont elle avait besoin pour la construction de ses navires,. Le système de quotas instauré par le régime hollandais (houtcontingenten) est supprimé par Herman Willem Daendels, cependant l’exploitation forestière resta largement dépendante du travail pénible des populations locales. Le blandong est aboli en 1865. Les blandongs n'étaient pas seulement responsables de la coupe des arbres et de leur débardage, ils devaient également fournir les bêtes de sommes nécessaires au débardage. Le travail du blandong se faisait de février à novembre; de novembre à février il était occupé à la culture du riz.
+Durant l'Orde Baru (en) de Suharto, « blandong  » devient synonyme d'exploitant forestier ou de bûcheron, et dans l'ère post-Suharto (en) d'exploitant forestier illégal,.
 </t>
         </is>
       </c>
